--- a/Ser_Excel_2020/SIIF_NOMINA/PLANTILLAS/COLS91.xlsx
+++ b/Ser_Excel_2020/SIIF_NOMINA/PLANTILLAS/COLS91.xlsx
@@ -1,38 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilder.lopez\Documents\Requerimientos\2021\Septiembre\75813\Ser excel Nuevo\Ser_Excel_2020\Ser_Excel_2020\SIIF_NOMINA\PLANTILLAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brayan.milian\Documents\Informacion\SIIFGIT\Interactuar\ConsoleApp-FormApp\Ser_Excel_2020\Ser_Excel_2020\SIIF_NOMINA\PLANTILLAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC84ACE-E32B-4FF6-9A53-DCF92051D54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2EE2300C-39FC-4E9B-A6CB-9828C4274F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
-    <sheet name="001" sheetId="2" r:id="rId2"/>
-    <sheet name="002" sheetId="3" r:id="rId3"/>
-    <sheet name="003" sheetId="4" r:id="rId4"/>
-    <sheet name="004" sheetId="8" r:id="rId5"/>
-    <sheet name="005" sheetId="5" r:id="rId6"/>
-    <sheet name="006" sheetId="6" r:id="rId7"/>
+    <sheet name="001" sheetId="3" r:id="rId2"/>
+    <sheet name="002" sheetId="4" r:id="rId3"/>
+    <sheet name="003" sheetId="8" r:id="rId4"/>
+    <sheet name="004" sheetId="5" r:id="rId5"/>
+    <sheet name="005" sheetId="9" r:id="rId6"/>
+    <sheet name="006" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="a">"$#REF!.#REF!#REF!"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'006'!$A$1:$A$1</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2_1">"$#REF!.#REF!#REF!"</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_2_1_3">"$#REF!.#REF!#REF!"</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="89" uniqueCount="54">
+  <si>
+    <t>??FIN??</t>
+  </si>
   <si>
     <t>ESTADO DE CUENTA</t>
   </si>
@@ -185,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">Usuario: </t>
+  </si>
+  <si>
+    <t>Este Documento carecerá de validez si se encuentran nuevos cargos no</t>
   </si>
   <si>
     <r>
@@ -210,20 +220,11 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
-  <si>
-    <t>CS.FC.53.V2</t>
-  </si>
-  <si>
-    <t>??FIN??</t>
-  </si>
-  <si>
-    <t>??IMG??</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$ &quot;#,##0;&quot;$ -&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
@@ -425,10 +426,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="26">
@@ -585,19 +587,19 @@
   </fills>
   <borders count="25">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="23"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="23"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="23"/>
       </top>
@@ -607,12 +609,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <start style="double">
         <color indexed="63"/>
-      </left>
-      <right style="double">
+      </start>
+      <end style="double">
         <color indexed="63"/>
-      </right>
+      </end>
       <top style="double">
         <color indexed="63"/>
       </top>
@@ -622,8 +624,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="double">
         <color indexed="52"/>
@@ -631,12 +633,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
         <color indexed="22"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="22"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="22"/>
       </top>
@@ -646,12 +657,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="63"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="63"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="63"/>
       </top>
@@ -661,17 +672,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thick">
         <color indexed="22"/>
@@ -679,8 +681,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
@@ -688,8 +690,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="thin">
         <color indexed="62"/>
       </top>
@@ -699,8 +701,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="double">
         <color indexed="62"/>
       </top>
@@ -710,21 +712,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
+      <start/>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -734,10 +736,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="62"/>
-      </left>
-      <right/>
+      </start>
+      <end/>
       <top style="double">
         <color indexed="62"/>
       </top>
@@ -747,10 +749,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color indexed="62"/>
-      </right>
+      </end>
       <top style="double">
         <color indexed="62"/>
       </top>
@@ -760,13 +762,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
+      <start style="medium">
+        <color indexed="8"/>
+      </start>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="8"/>
+      </start>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -775,11 +805,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
+      <start/>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -788,10 +818,49 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <start/>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="medium">
+        <color indexed="8"/>
+      </start>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="8"/>
+      </end>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -801,12 +870,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
+      <start style="thin">
+        <color indexed="8"/>
+      </start>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -816,81 +885,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
+      <start/>
+      <end style="medium">
+        <color indexed="8"/>
+      </end>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -965,16 +967,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -983,26 +985,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1013,7 +1012,6 @@
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1026,66 +1024,66 @@
     <xf numFmtId="168" fontId="23" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="22" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="23" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="23" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="23" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="23" fillId="24" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1193,166 +1191,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1041" name="2 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957787B0-977D-4440-9A4C-75B0485C6678}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2438400" y="57150"/>
-          <a:ext cx="3019425" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2895600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6198" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE465A5A-CB58-44A8-99E2-5CF00D9E0CA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="217714" y="0"/>
-          <a:ext cx="8029575" cy="2895600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1469,22 +1309,22 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="50%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="35%">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="37%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="15%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1492,22 +1332,22 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="51%"/>
+                <a:satMod val="130%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="80%">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="93%"/>
+                <a:satMod val="130%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="94%"/>
+                <a:satMod val="135%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1518,8 +1358,8 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:shade val="95%"/>
+              <a:satMod val="105%"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -1542,7 +1382,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="38%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1551,7 +1391,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="35%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1560,7 +1400,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="35%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1583,47 +1423,47 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="40%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="40%">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="45%"/>
+                <a:shade val="99%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="20%"/>
+                <a:satMod val="255%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect l="50%" t="-80%" r="50%" b="180%"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="80%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
+                <a:shade val="30%"/>
+                <a:satMod val="200%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1698,150 +1538,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.35416666666666669" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup scale="70" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,72 +1683,9 @@
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="0.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="26" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -1937,269 +1698,257 @@
       <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="C3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
+      <c r="C4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="24" t="s">
+      <c r="I10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="24" t="s">
+      <c r="I11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="32" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="9" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="27" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="6"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="K15" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="A16" s="18" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
@@ -2207,19 +1956,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.35416666666666669" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2228,9 +1964,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K24"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2238,7 +1974,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
@@ -2252,51 +1988,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>13</v>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2309,8 +2033,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2319,57 +2043,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>23</v>
+      <c r="A1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2379,194 +2105,214 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="36"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
-      <c r="D4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="39"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="11"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="12" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
-      <c r="D6" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="11"/>
-      <c r="D7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
-      <c r="D8" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="12" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="14"/>
+      <c r="E15" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="14" t="s">
-        <v>51</v>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
+      <c r="A17" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -2574,24 +2320,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2600,36 +2328,43 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF4F86-D67C-4A88-B091-9A694D669966}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="15"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="269.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>54</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>